--- a/medicine/Enfance/Langelot_en_permission/Langelot_en_permission.xlsx
+++ b/medicine/Enfance/Langelot_en_permission/Langelot_en_permission.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot en permission est le trente-deuxième roman de la série Langelot, écrite par le Lieutenant X. Ce roman a été édité pour la première fois en 1979, dans la bibliothèque verte.
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les « gentils »
 Langelot : orphelin, agent peu expérimenté du Service National d'Information Fonctionnelle, blond, 1,68 m, mince.
@@ -554,7 +568,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman commence par un prologue : sept personnages sont réunis et discutent de diverses affaires. Ce sont les dirigeants du SPHINX, une organisation criminelle internationale. La décision est prise d'éliminer le sous-lieutenant Langelot qui, à plusieurs reprises, avait dans le passé contrecarré les plans du SPHINX. Sidney-la-Gélatine, qui a un compte personnel à régler avec Langelot, propose de s'occuper lui-même de l'opération et de prendre les frais à sa charges.
 Langelot est tout heureux d'avoir quinze jours de permission. Il a décidé de se rendre à Marbella, en Espagne, pour profiter du soleil et de la Méditerranée. Son amie Choupette doit venir le rejoindre dans quelques jours, dès que son père, le professeur Roche-Verger, aura fini ses affaires à Rome.
@@ -596,7 +612,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Langelot a déjà eu l'occasion de lutter à plusieurs reprises contre le SPHINX.
 Le jeune agent secret s'était déjà rendu en Espagne dans le roman Langelot et le Sous-Marin jaune (1971). Il y retournera en 1981, dans Langelot contre la marée noire.
